--- a/CS3343_ActivityLog_TimeSheet_Project_2024.xlsx
+++ b/CS3343_ActivityLog_TimeSheet_Project_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Academic &amp; Career\CityU Documents\Course 3rd yr semA\CS3343_TankWar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09222A76-49CB-4D31-B8DE-248D3B13A325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9AB41-5FBF-4D00-BA4F-1B4F32AAAB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1185" windowWidth="15960" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Contribution Log" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Course</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Contribution</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Project Manager Name</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t xml:space="preserve">Recruit Project Memebers to Form a Team. </t>
   </si>
   <si>
-    <t>Chan Tai Man</t>
-  </si>
-  <si>
     <t>e.g.Group Mark</t>
   </si>
   <si>
@@ -172,6 +166,45 @@
   </si>
   <si>
     <t xml:space="preserve">LIU Fengda </t>
+  </si>
+  <si>
+    <t>Tank War</t>
+  </si>
+  <si>
+    <t>Hong Yifan</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Discuss project theme and ideas</t>
+  </si>
+  <si>
+    <t>Set project content, Define Product Vision, allocate position</t>
+  </si>
+  <si>
+    <t>Develop a prototype</t>
+  </si>
+  <si>
+    <t>refactor prototype and add new features</t>
+  </si>
+  <si>
+    <t>refactor code and add new features</t>
+  </si>
+  <si>
+    <t>Demo is ready. Play the demo and report bugs</t>
+  </si>
+  <si>
+    <t>bug fixing</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>Testing after modification</t>
+  </si>
+  <si>
+    <t>Release</t>
   </si>
 </sst>
 </file>
@@ -641,7 +674,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -774,6 +807,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1101,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1121,23 +1160,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
+      <c r="B4">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75">
@@ -1145,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75">
@@ -1159,10 +1198,10 @@
     </row>
     <row r="7" spans="1:22" ht="15.75">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1"/>
@@ -1219,16 +1258,16 @@
         <v>21</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U9" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V9" s="4"/>
     </row>
@@ -1237,7 +1276,7 @@
         <v>57853960</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="31">
         <v>1</v>
@@ -1307,7 +1346,7 @@
         <v>57854089</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="31">
         <v>1</v>
@@ -1377,7 +1416,7 @@
         <v>57854053</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="31">
         <v>1</v>
@@ -1447,7 +1486,7 @@
         <v>57827327</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="31">
         <v>1</v>
@@ -1517,7 +1556,7 @@
         <v>57831802</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="31">
         <v>0</v>
@@ -1587,7 +1626,7 @@
         <v>57853996</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="31">
         <v>1</v>
@@ -1759,14 +1798,14 @@
         <v>6975</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R18" s="18">
         <f>MAX(R10:R17)</f>
         <v>1.0073118279569893</v>
       </c>
       <c r="T18" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U18" s="17">
         <f>AVERAGE(U10:U17)</f>
@@ -1776,7 +1815,7 @@
     <row r="19" spans="1:21">
       <c r="P19" s="5"/>
       <c r="T19" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U19" s="17">
         <f>MAX(U10:U17)</f>
@@ -1785,7 +1824,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="T20" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U20" s="17">
         <f>MIN(U10:U17)</f>
@@ -1808,7 +1847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="27" customHeight="1"/>
   <cols>
@@ -1819,13 +1860,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="37" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>32</v>
-      </c>
       <c r="C1" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
@@ -1833,88 +1874,132 @@
         <v>2</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="39"/>
+      <c r="B3" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
       <c r="A4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:3" s="36" customFormat="1" ht="27" customHeight="1">
       <c r="A14" s="41" t="s">
